--- a/webScrapping/espn_scrapper/IPL/Chennai Super Kings/MS Dhoni (c)†.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Chennai Super Kings/MS Dhoni (c)†.xlsx
@@ -474,37 +474,37 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 17 2020</v>
+        <v xml:space="preserve"> Oct 13 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
+        <v>Super Kings won by 20 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="E3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F3" t="str">
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="G3" t="str">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H3" t="str">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>60.00</v>
+        <v>161.53</v>
       </c>
     </row>
     <row r="4">
@@ -544,37 +544,37 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 13 2020</v>
+        <v xml:space="preserve"> Oct 17 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C5" t="str">
-        <v>Super Kings won by 20 runs</v>
+        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="E5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="F5" t="str">
         <v>MS Dhoni (c)†</v>
       </c>
       <c r="G5" t="str">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H5" t="str">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>161.53</v>
+        <v>60.00</v>
       </c>
     </row>
   </sheetData>
